--- a/INTLINE/data/134/DEUSTATIS/National accounts - Gross national income years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Gross national income years.xlsx
@@ -159,7 +159,7 @@
     <t>paid by general government.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:36:19</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:41:55</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1323,7 @@
         <v>3461.285</v>
       </c>
       <c r="AG5" t="n" s="10">
-        <v>3678.522</v>
+        <v>3677.82</v>
       </c>
     </row>
     <row r="6">
@@ -1424,7 +1424,7 @@
         <v>658.449</v>
       </c>
       <c r="AG6" t="n" s="10">
-        <v>694.038</v>
+        <v>694.247</v>
       </c>
     </row>
     <row r="7">
@@ -1525,7 +1525,7 @@
         <v>2802.836</v>
       </c>
       <c r="AG7" t="n" s="10">
-        <v>2984.484</v>
+        <v>2983.573</v>
       </c>
     </row>
     <row r="8">
@@ -1626,7 +1626,7 @@
         <v>274.603</v>
       </c>
       <c r="AG8" t="n" s="10">
-        <v>286.711</v>
+        <v>283.717</v>
       </c>
     </row>
     <row r="9">
@@ -1727,7 +1727,7 @@
         <v>2528.233</v>
       </c>
       <c r="AG9" t="n" s="10">
-        <v>2697.773</v>
+        <v>2699.856</v>
       </c>
     </row>
     <row r="10">
@@ -1828,7 +1828,7 @@
         <v>676.128</v>
       </c>
       <c r="AG10" t="n" s="10">
-        <v>777.36</v>
+        <v>778.478</v>
       </c>
     </row>
     <row r="11">
@@ -1929,7 +1929,7 @@
         <v>1852.105</v>
       </c>
       <c r="AG11" t="n" s="10">
-        <v>1920.413</v>
+        <v>1921.378</v>
       </c>
     </row>
     <row r="12">
@@ -1965,7 +1965,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:36:23&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:41:59&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - Gross national income years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Gross national income years.xlsx
@@ -159,7 +159,7 @@
     <t>paid by general government.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:41:55</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:33:20</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +1965,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:41:59&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:33:23&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>